--- a/data/epp-13-status-data.xlsx
+++ b/data/epp-13-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9826EA8-1469-E44F-8B65-A489C87BBD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5CE9C-AFAC-8545-B559-1D5143641C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -126,56 +126,55 @@
     <t>rem</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>clientUpdateProhibited</t>
+  </si>
+  <si>
+    <t>serverUpdateProhibited</t>
+  </si>
+  <si>
+    <t>clientDeleteProhibited</t>
+  </si>
+  <si>
+    <t>clientHold</t>
+  </si>
+  <si>
+    <t>EPP_HOST_UPDATE_SERVER_ACCEPTS_INVALID_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pendingCreate</t>
+  </si>
+  <si>
+    <t>pendingDelete</t>
+  </si>
+  <si>
+    <t>pendingTransfer</t>
+  </si>
+  <si>
+    <t>pendingUpdate</t>
+  </si>
+  <si>
+    <t>serverDeleteProhibited</t>
+  </si>
+  <si>
+    <t>invalidStatusCode</t>
+  </si>
+  <si>
+    <t>Status code Data Provider for epp-13</t>
+  </si>
+  <si>
     <t>* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
-* Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an &lt;info&gt; command.
-* An &lt;update&gt; command will then be used to remove the property, which MUST succeed.
+* Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an `&lt;info&gt;` command.
 * The cell values for rows with action=rem do not occur in previous rows, so the objects should not have those properties, meaning a successful response is an error.</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>clientUpdateProhibited</t>
-  </si>
-  <si>
-    <t>serverUpdateProhibited</t>
-  </si>
-  <si>
-    <t>clientDeleteProhibited</t>
-  </si>
-  <si>
-    <t>clientHold</t>
-  </si>
-  <si>
-    <t>EPP_HOST_UPDATE_SERVER_ACCEPTS_INVALID_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>linked</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pendingCreate</t>
-  </si>
-  <si>
-    <t>pendingDelete</t>
-  </si>
-  <si>
-    <t>pendingTransfer</t>
-  </si>
-  <si>
-    <t>pendingUpdate</t>
-  </si>
-  <si>
-    <t>serverDeleteProhibited</t>
-  </si>
-  <si>
-    <t>invalidStatusCode</t>
-  </si>
-  <si>
-    <t>Status code Data Provider for epp-13</t>
   </si>
 </sst>
 </file>
@@ -738,7 +737,7 @@
   <dimension ref="B2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,7 +752,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -761,7 +760,7 @@
     </row>
     <row r="3" spans="2:5" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -792,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -832,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -846,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -860,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -874,13 +873,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -888,13 +887,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -902,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -916,13 +915,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -930,13 +929,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -944,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -958,13 +957,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -972,13 +971,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -986,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -1000,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -1014,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
@@ -1028,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -1042,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -1056,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -1070,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -1084,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -1098,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -1112,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -1126,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -1140,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -1154,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -1168,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>

--- a/data/epp-13-status-data.xlsx
+++ b/data/epp-13-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5CE9C-AFAC-8545-B559-1D5143641C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885A050-A6E4-6641-9833-202F3F8BB054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
     <t>errorCode</t>
   </si>
@@ -737,7 +737,7 @@
   <dimension ref="B2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,16 +842,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -859,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -873,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -887,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -901,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -915,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -929,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -943,7 +937,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -957,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -971,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -985,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
@@ -996,16 +990,16 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">

--- a/data/epp-13-status-data.xlsx
+++ b/data/epp-13-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885A050-A6E4-6641-9833-202F3F8BB054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2253F25-4145-6047-B46D-0196F86597AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -62,52 +62,6 @@
     <t>Error code if expected result is not produced</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
-* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
-* Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
-* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
     <t>IP Version</t>
   </si>
   <si>
@@ -175,13 +129,23 @@
     * A value of `{EMPTY}` indicates an empty string.
 * Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an `&lt;info&gt;` command.
 * The cell values for rows with action=rem do not occur in previous rows, so the objects should not have those properties, meaning a successful response is an error.</t>
+  </si>
+  <si>
+    <t>Notes for authors:
+* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
+* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
+* Do not change anything except the contents of the table below and the box above.
+* All cells MUST have the "Text" type.
+* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,13 +170,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -737,7 +694,7 @@
   <dimension ref="B2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +709,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -760,7 +717,7 @@
     </row>
     <row r="3" spans="2:5" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -772,9 +729,9 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -788,10 +745,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -803,7 +760,7 @@
     <row r="8" spans="2:5" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -828,346 +785,346 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
